--- a/sources/raid-workbook.xlsx
+++ b/sources/raid-workbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrcls\Documents\documentation\raid-selection\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D3909C-C3D3-4004-8016-075EC476B715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E6293D-4E6B-46EC-A060-091E3D99F4D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{49B36DA6-3612-4DCA-8CD5-94159D03252F}"/>
+    <workbookView xWindow="11910" yWindow="0" windowWidth="12180" windowHeight="15370" xr2:uid="{49B36DA6-3612-4DCA-8CD5-94159D03252F}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Level</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>Disk Name</t>
+  </si>
+  <si>
+    <t>MTTR</t>
   </si>
 </sst>
 </file>
@@ -468,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F882FCA-2035-4C0B-8F49-81BAAA2F55A0}">
-  <dimension ref="B3:K18"/>
+  <dimension ref="B3:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -703,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <f>D4*D18</f>
+        <f t="shared" ref="D11:J11" si="0">D4*D18</f>
         <v>4000</v>
       </c>
       <c r="E11">
-        <f>E4*E18</f>
+        <f t="shared" si="0"/>
         <v>4000</v>
       </c>
       <c r="F11">
-        <f>F4*F18</f>
+        <f t="shared" si="0"/>
         <v>4000</v>
       </c>
       <c r="G11">
-        <f>G4*G18</f>
+        <f t="shared" si="0"/>
         <v>4000</v>
       </c>
       <c r="H11">
-        <f>H4*H18</f>
+        <f t="shared" si="0"/>
         <v>4000</v>
       </c>
       <c r="I11">
-        <f>I4*I18</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="J11">
-        <f>J4*J18</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="K11">
@@ -743,31 +746,31 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <f>D5*D18</f>
+        <f t="shared" ref="D12:J12" si="1">D5*D18</f>
         <v>2000</v>
       </c>
       <c r="E12">
-        <f>E5*E18</f>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="F12">
-        <f>F5*F18</f>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="G12">
-        <f>G5*G18</f>
+        <f t="shared" si="1"/>
         <v>4000</v>
       </c>
       <c r="H12">
-        <f>H5*H18</f>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="I12">
-        <f>I5*I18</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="J12">
-        <f>J5*J18</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="K12">
@@ -783,31 +786,31 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <f>D6*D18</f>
+        <f t="shared" ref="D13:J13" si="2">D6*D18</f>
         <v>3900</v>
       </c>
       <c r="E13">
-        <f>E6*E18</f>
+        <f t="shared" si="2"/>
         <v>3900</v>
       </c>
       <c r="F13">
-        <f>F6*F18</f>
+        <f t="shared" si="2"/>
         <v>3900</v>
       </c>
       <c r="G13">
-        <f>G6*G18</f>
+        <f t="shared" si="2"/>
         <v>4000</v>
       </c>
       <c r="H13">
-        <f>H6*H18</f>
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
       <c r="I13">
-        <f>I6*I18</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="J13">
-        <f>J6*J18</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="K13">
@@ -823,31 +826,31 @@
         <v>2</v>
       </c>
       <c r="D14">
-        <f>D7*D18</f>
+        <f t="shared" ref="D14:J14" si="3">D7*D18</f>
         <v>3800</v>
       </c>
       <c r="E14">
-        <f>E7*E18</f>
+        <f t="shared" si="3"/>
         <v>3800</v>
       </c>
       <c r="F14">
-        <f>F7*F18</f>
+        <f t="shared" si="3"/>
         <v>3800</v>
       </c>
       <c r="G14">
-        <f>G7*G18</f>
+        <f t="shared" si="3"/>
         <v>4000</v>
       </c>
       <c r="H14">
-        <f>H7*H18</f>
+        <f t="shared" si="3"/>
         <v>666.66666666666674</v>
       </c>
       <c r="I14">
-        <f>I7*I18</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="J14">
-        <f>J7*J18</f>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="K14">
@@ -855,7 +858,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>21</v>
       </c>
@@ -886,8 +889,11 @@
       <c r="K17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B18" s="2" t="s">
         <v>23</v>
       </c>
@@ -917,6 +923,9 @@
       </c>
       <c r="K18" s="2">
         <v>100</v>
+      </c>
+      <c r="L18" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
